--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.202053</v>
+        <v>0.4424235</v>
       </c>
       <c r="H2">
-        <v>2.404106</v>
+        <v>0.8848469999999999</v>
       </c>
       <c r="I2">
-        <v>0.4470088265475836</v>
+        <v>0.2809019368442305</v>
       </c>
       <c r="J2">
-        <v>0.3746792223348842</v>
+        <v>0.2318142985252228</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N2">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O2">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P2">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q2">
-        <v>30.815188811698</v>
+        <v>8.277706079002501</v>
       </c>
       <c r="R2">
-        <v>123.260755246792</v>
+        <v>33.11082431601</v>
       </c>
       <c r="S2">
-        <v>0.02104040993279744</v>
+        <v>0.006101680557725895</v>
       </c>
       <c r="T2">
-        <v>0.01222868827950208</v>
+        <v>0.003396366719015649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.202053</v>
+        <v>0.4424235</v>
       </c>
       <c r="H3">
-        <v>2.404106</v>
+        <v>0.8848469999999999</v>
       </c>
       <c r="I3">
-        <v>0.4470088265475836</v>
+        <v>0.2809019368442305</v>
       </c>
       <c r="J3">
-        <v>0.3746792223348842</v>
+        <v>0.2318142985252228</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N3">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O3">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P3">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q3">
-        <v>234.588205065423</v>
+        <v>91.139652748804</v>
       </c>
       <c r="R3">
-        <v>1407.529230392538</v>
+        <v>546.837916492824</v>
       </c>
       <c r="S3">
-        <v>0.1601752963493742</v>
+        <v>0.06718105739776156</v>
       </c>
       <c r="T3">
-        <v>0.1396408464989166</v>
+        <v>0.05609229424632742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.202053</v>
+        <v>0.4424235</v>
       </c>
       <c r="H4">
-        <v>2.404106</v>
+        <v>0.8848469999999999</v>
       </c>
       <c r="I4">
-        <v>0.4470088265475836</v>
+        <v>0.2809019368442305</v>
       </c>
       <c r="J4">
-        <v>0.3746792223348842</v>
+        <v>0.2318142985252228</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N4">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O4">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P4">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q4">
-        <v>44.898706211358</v>
+        <v>4.993266169359749</v>
       </c>
       <c r="R4">
-        <v>179.594824845432</v>
+        <v>19.97306467743899</v>
       </c>
       <c r="S4">
-        <v>0.03065654375548043</v>
+        <v>0.00368064712788211</v>
       </c>
       <c r="T4">
-        <v>0.01781758618344764</v>
+        <v>0.00204875153514074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.202053</v>
+        <v>0.4424235</v>
       </c>
       <c r="H5">
-        <v>2.404106</v>
+        <v>0.8848469999999999</v>
       </c>
       <c r="I5">
-        <v>0.4470088265475836</v>
+        <v>0.2809019368442305</v>
       </c>
       <c r="J5">
-        <v>0.3746792223348842</v>
+        <v>0.2318142985252228</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N5">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O5">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P5">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q5">
-        <v>28.55590054755733</v>
+        <v>215.194063055766</v>
       </c>
       <c r="R5">
-        <v>171.3354032853439</v>
+        <v>1291.164378334596</v>
       </c>
       <c r="S5">
-        <v>0.01949778264193909</v>
+        <v>0.1586243118750159</v>
       </c>
       <c r="T5">
-        <v>0.01699816972420975</v>
+        <v>0.1324421186709554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.202053</v>
+        <v>0.4424235</v>
       </c>
       <c r="H6">
-        <v>2.404106</v>
+        <v>0.8848469999999999</v>
       </c>
       <c r="I6">
-        <v>0.4470088265475836</v>
+        <v>0.2809019368442305</v>
       </c>
       <c r="J6">
-        <v>0.3746792223348842</v>
+        <v>0.2318142985252228</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N6">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O6">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P6">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q6">
-        <v>315.8184735655256</v>
+        <v>61.474532371822</v>
       </c>
       <c r="R6">
-        <v>1894.910841393154</v>
+        <v>368.847194230932</v>
       </c>
       <c r="S6">
-        <v>0.2156387938679924</v>
+        <v>0.04531423988584508</v>
       </c>
       <c r="T6">
-        <v>0.1879939316488081</v>
+        <v>0.03783476735378356</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.418704</v>
       </c>
       <c r="I7">
-        <v>0.05190131209155766</v>
+        <v>0.08861401241452041</v>
       </c>
       <c r="J7">
-        <v>0.06525489687580555</v>
+        <v>0.1096930588561693</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N7">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O7">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P7">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q7">
-        <v>3.577890718688</v>
+        <v>2.61130541672</v>
       </c>
       <c r="R7">
-        <v>21.467344312128</v>
+        <v>15.66783250032</v>
       </c>
       <c r="S7">
-        <v>0.002442960446420144</v>
+        <v>0.001924851080651656</v>
       </c>
       <c r="T7">
-        <v>0.002129773270138937</v>
+        <v>0.001607139235052759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.418704</v>
       </c>
       <c r="I8">
-        <v>0.05190131209155766</v>
+        <v>0.08861401241452041</v>
       </c>
       <c r="J8">
-        <v>0.06525489687580555</v>
+        <v>0.1096930588561693</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N8">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O8">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P8">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q8">
-        <v>27.237573222288</v>
+        <v>28.75113789128534</v>
       </c>
       <c r="R8">
-        <v>245.138159000592</v>
+        <v>258.760241021568</v>
       </c>
       <c r="S8">
-        <v>0.01859763734285382</v>
+        <v>0.02119310077084691</v>
       </c>
       <c r="T8">
-        <v>0.02432013438362634</v>
+        <v>0.02654251861634189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.418704</v>
       </c>
       <c r="I9">
-        <v>0.05190131209155766</v>
+        <v>0.08861401241452041</v>
       </c>
       <c r="J9">
-        <v>0.06525489687580555</v>
+        <v>0.1096930588561693</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N9">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O9">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P9">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q9">
-        <v>5.213100111648</v>
+        <v>1.575187965208</v>
       </c>
       <c r="R9">
-        <v>31.278600669888</v>
+        <v>9.451127791247998</v>
       </c>
       <c r="S9">
-        <v>0.003559470754504912</v>
+        <v>0.001161105950168222</v>
       </c>
       <c r="T9">
-        <v>0.003103147118036502</v>
+        <v>0.0009694562594093311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.418704</v>
       </c>
       <c r="I10">
-        <v>0.05190131209155766</v>
+        <v>0.08861401241452041</v>
       </c>
       <c r="J10">
-        <v>0.06525489687580555</v>
+        <v>0.1096930588561693</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N10">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O10">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P10">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q10">
-        <v>3.315569220010666</v>
+        <v>67.885645750208</v>
       </c>
       <c r="R10">
-        <v>29.84012298009599</v>
+        <v>610.9708117518719</v>
       </c>
       <c r="S10">
-        <v>0.002263849038079149</v>
+        <v>0.0500400136063573</v>
       </c>
       <c r="T10">
-        <v>0.002960435877704859</v>
+        <v>0.06267077229849194</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.418704</v>
       </c>
       <c r="I11">
-        <v>0.05190131209155766</v>
+        <v>0.08861401241452041</v>
       </c>
       <c r="J11">
-        <v>0.06525489687580555</v>
+        <v>0.1096930588561693</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N11">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O11">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P11">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q11">
-        <v>36.66905928323733</v>
+        <v>19.39290642126933</v>
       </c>
       <c r="R11">
-        <v>330.021533549136</v>
+        <v>174.536157791424</v>
       </c>
       <c r="S11">
-        <v>0.02503739450969963</v>
+        <v>0.01429494100649633</v>
       </c>
       <c r="T11">
-        <v>0.0327414062262989</v>
+        <v>0.0179031724468734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2201936666666666</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H12">
-        <v>0.660581</v>
+        <v>0.223549</v>
       </c>
       <c r="I12">
-        <v>0.08188367114418121</v>
+        <v>0.04731164226100926</v>
       </c>
       <c r="J12">
-        <v>0.1029513571236876</v>
+        <v>0.05856589288432353</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N12">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O12">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P12">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q12">
-        <v>5.644767255248667</v>
+        <v>1.394194262778333</v>
       </c>
       <c r="R12">
-        <v>33.868603531492</v>
+        <v>8.365165576670002</v>
       </c>
       <c r="S12">
-        <v>0.003854210264665885</v>
+        <v>0.001027691481878838</v>
       </c>
       <c r="T12">
-        <v>0.003360101065577709</v>
+        <v>0.0008580629008961203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2201936666666666</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H13">
-        <v>0.660581</v>
+        <v>0.223549</v>
       </c>
       <c r="I13">
-        <v>0.08188367114418121</v>
+        <v>0.04731164226100926</v>
       </c>
       <c r="J13">
-        <v>0.1029513571236876</v>
+        <v>0.05856589288432353</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N13">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O13">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P13">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q13">
-        <v>42.972179288357</v>
+        <v>15.35043401653422</v>
       </c>
       <c r="R13">
-        <v>386.749613595213</v>
+        <v>138.153906148808</v>
       </c>
       <c r="S13">
-        <v>0.02934112373796219</v>
+        <v>0.01131514502899914</v>
       </c>
       <c r="T13">
-        <v>0.03836939387077809</v>
+        <v>0.01417123670699256</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2201936666666666</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H14">
-        <v>0.660581</v>
+        <v>0.223549</v>
       </c>
       <c r="I14">
-        <v>0.08188367114418121</v>
+        <v>0.04731164226100926</v>
       </c>
       <c r="J14">
-        <v>0.1029513571236876</v>
+        <v>0.05856589288432353</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N14">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O14">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P14">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q14">
-        <v>8.224604696522</v>
+        <v>0.8410038940021666</v>
       </c>
       <c r="R14">
-        <v>49.347628179132</v>
+        <v>5.046023364012999</v>
       </c>
       <c r="S14">
-        <v>0.0056157064429325</v>
+        <v>0.0006199226041646506</v>
       </c>
       <c r="T14">
-        <v>0.004895773688284972</v>
+        <v>0.0005175994911314355</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2201936666666666</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H15">
-        <v>0.660581</v>
+        <v>0.223549</v>
       </c>
       <c r="I15">
-        <v>0.08188367114418121</v>
+        <v>0.04731164226100926</v>
       </c>
       <c r="J15">
-        <v>0.1029513571236876</v>
+        <v>0.05856589288432353</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N15">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O15">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P15">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q15">
-        <v>5.230907827304888</v>
+        <v>36.24462202848133</v>
       </c>
       <c r="R15">
-        <v>47.07817044574399</v>
+        <v>326.201598256332</v>
       </c>
       <c r="S15">
-        <v>0.00357162974660706</v>
+        <v>0.02671671395947392</v>
       </c>
       <c r="T15">
-        <v>0.004670620993661761</v>
+        <v>0.03346036454525292</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2201936666666666</v>
+        <v>0.07451633333333334</v>
       </c>
       <c r="H16">
-        <v>0.660581</v>
+        <v>0.223549</v>
       </c>
       <c r="I16">
-        <v>0.08188367114418121</v>
+        <v>0.04731164226100926</v>
       </c>
       <c r="J16">
-        <v>0.1029513571236876</v>
+        <v>0.05856589288432353</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N16">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O16">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P16">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q16">
-        <v>57.85204786765878</v>
+        <v>10.35400864947156</v>
       </c>
       <c r="R16">
-        <v>520.668430808929</v>
+        <v>93.186077845244</v>
       </c>
       <c r="S16">
-        <v>0.03950100095201357</v>
+        <v>0.007632169186492718</v>
       </c>
       <c r="T16">
-        <v>0.05165546750538509</v>
+        <v>0.009558629240050498</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4488195</v>
+        <v>0.465557</v>
       </c>
       <c r="H17">
-        <v>0.8976390000000001</v>
+        <v>0.931114</v>
       </c>
       <c r="I17">
-        <v>0.166903021769151</v>
+        <v>0.2955897754332431</v>
       </c>
       <c r="J17">
-        <v>0.1398967776202311</v>
+        <v>0.2439354360211587</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N17">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O17">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P17">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q17">
-        <v>11.505697032387</v>
+        <v>8.710531897655001</v>
       </c>
       <c r="R17">
-        <v>46.022788129548</v>
+        <v>34.84212759062</v>
       </c>
       <c r="S17">
-        <v>0.007856014889387723</v>
+        <v>0.006420726058659168</v>
       </c>
       <c r="T17">
-        <v>0.004565916610384055</v>
+        <v>0.003573956402869125</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4488195</v>
+        <v>0.465557</v>
       </c>
       <c r="H18">
-        <v>0.8976390000000001</v>
+        <v>0.931114</v>
       </c>
       <c r="I18">
-        <v>0.166903021769151</v>
+        <v>0.2955897754332431</v>
       </c>
       <c r="J18">
-        <v>0.1398967776202311</v>
+        <v>0.2439354360211587</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N18">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O18">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P18">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q18">
-        <v>87.58994894847451</v>
+        <v>95.90517527838134</v>
       </c>
       <c r="R18">
-        <v>525.5396936908471</v>
+        <v>575.431051670288</v>
       </c>
       <c r="S18">
-        <v>0.05980584584862563</v>
+        <v>0.07069382964270586</v>
       </c>
       <c r="T18">
-        <v>0.05213874505135839</v>
+        <v>0.05902525573898641</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4488195</v>
+        <v>0.465557</v>
       </c>
       <c r="H19">
-        <v>0.8976390000000001</v>
+        <v>0.931114</v>
       </c>
       <c r="I19">
-        <v>0.166903021769151</v>
+        <v>0.2955897754332431</v>
       </c>
       <c r="J19">
-        <v>0.1398967776202311</v>
+        <v>0.2439354360211587</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N19">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O19">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P19">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q19">
-        <v>16.764165034677</v>
+        <v>5.254354748354499</v>
       </c>
       <c r="R19">
-        <v>67.05666013870801</v>
+        <v>21.017418993418</v>
       </c>
       <c r="S19">
-        <v>0.01144646254371717</v>
+        <v>0.003873101304328119</v>
       </c>
       <c r="T19">
-        <v>0.00665268513290336</v>
+        <v>0.002155876933403216</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4488195</v>
+        <v>0.465557</v>
       </c>
       <c r="H20">
-        <v>0.8976390000000001</v>
+        <v>0.931114</v>
       </c>
       <c r="I20">
-        <v>0.166903021769151</v>
+        <v>0.2955897754332431</v>
       </c>
       <c r="J20">
-        <v>0.1398967776202311</v>
+        <v>0.2439354360211587</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N20">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O20">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P20">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q20">
-        <v>10.662129711256</v>
+        <v>226.446159424292</v>
       </c>
       <c r="R20">
-        <v>63.97277826753599</v>
+        <v>1358.676956545752</v>
       </c>
       <c r="S20">
-        <v>0.007280032624571283</v>
+        <v>0.1669184814179102</v>
       </c>
       <c r="T20">
-        <v>0.00634673349389333</v>
+        <v>0.1393672701429602</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4488195</v>
+        <v>0.465557</v>
       </c>
       <c r="H21">
-        <v>0.8976390000000001</v>
+        <v>0.931114</v>
       </c>
       <c r="I21">
-        <v>0.166903021769151</v>
+        <v>0.2955897754332431</v>
       </c>
       <c r="J21">
-        <v>0.1398967776202311</v>
+        <v>0.2439354360211587</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N21">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O21">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P21">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q21">
-        <v>117.9195005515085</v>
+        <v>64.68892106189733</v>
       </c>
       <c r="R21">
-        <v>707.5170033090511</v>
+        <v>388.1335263713841</v>
       </c>
       <c r="S21">
-        <v>0.08051466586284918</v>
+        <v>0.04768363700963981</v>
       </c>
       <c r="T21">
-        <v>0.07019269733169191</v>
+        <v>0.03981307680293975</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.4943506666666667</v>
+        <v>0.293492</v>
       </c>
       <c r="H22">
-        <v>1.483052</v>
+        <v>0.880476</v>
       </c>
       <c r="I22">
-        <v>0.1838347488918395</v>
+        <v>0.186342884698229</v>
       </c>
       <c r="J22">
-        <v>0.2311332237605974</v>
+        <v>0.2306691736631237</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N22">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O22">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P22">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q22">
-        <v>12.67290970741067</v>
+        <v>5.491210373180001</v>
       </c>
       <c r="R22">
-        <v>76.03745824446401</v>
+        <v>32.94726223908</v>
       </c>
       <c r="S22">
-        <v>0.008652980090909776</v>
+        <v>0.004047692833332969</v>
       </c>
       <c r="T22">
-        <v>0.007543669293405581</v>
+        <v>0.003379589220839335</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.4943506666666667</v>
+        <v>0.293492</v>
       </c>
       <c r="H23">
-        <v>1.483052</v>
+        <v>0.880476</v>
       </c>
       <c r="I23">
-        <v>0.1838347488918395</v>
+        <v>0.186342884698229</v>
       </c>
       <c r="J23">
-        <v>0.2311332237605974</v>
+        <v>0.2306691736631237</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N23">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O23">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P23">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q23">
-        <v>96.47564256004401</v>
+        <v>60.45962514322134</v>
       </c>
       <c r="R23">
-        <v>868.280783040396</v>
+        <v>544.136626288992</v>
       </c>
       <c r="S23">
-        <v>0.06587293949089104</v>
+        <v>0.04456612928061877</v>
       </c>
       <c r="T23">
-        <v>0.08614205724785483</v>
+        <v>0.05581520745262106</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.4943506666666667</v>
+        <v>0.293492</v>
       </c>
       <c r="H24">
-        <v>1.483052</v>
+        <v>0.880476</v>
       </c>
       <c r="I24">
-        <v>0.1838347488918395</v>
+        <v>0.186342884698229</v>
       </c>
       <c r="J24">
-        <v>0.2311332237605974</v>
+        <v>0.2306691736631237</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N24">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O24">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P24">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q24">
-        <v>18.464830875224</v>
+        <v>3.312400165402</v>
       </c>
       <c r="R24">
-        <v>110.788985251344</v>
+        <v>19.874400992412</v>
       </c>
       <c r="S24">
-        <v>0.01260766608728366</v>
+        <v>0.002441643553871746</v>
       </c>
       <c r="T24">
-        <v>0.01099136511640269</v>
+        <v>0.002038631036387735</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.4943506666666667</v>
+        <v>0.293492</v>
       </c>
       <c r="H25">
-        <v>1.483052</v>
+        <v>0.880476</v>
       </c>
       <c r="I25">
-        <v>0.1838347488918395</v>
+        <v>0.186342884698229</v>
       </c>
       <c r="J25">
-        <v>0.2311332237605974</v>
+        <v>0.2306691736631237</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N25">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O25">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P25">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q25">
-        <v>11.74376543542755</v>
+        <v>142.754026299152</v>
       </c>
       <c r="R25">
-        <v>105.693888918848</v>
+        <v>1284.786236692368</v>
       </c>
       <c r="S25">
-        <v>0.008018566442215403</v>
+        <v>0.1052271557474279</v>
       </c>
       <c r="T25">
-        <v>0.01048588107422415</v>
+        <v>0.1317878761852932</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4943506666666667</v>
+        <v>0.293492</v>
       </c>
       <c r="H26">
-        <v>1.483052</v>
+        <v>0.880476</v>
       </c>
       <c r="I26">
-        <v>0.1838347488918395</v>
+        <v>0.186342884698229</v>
       </c>
       <c r="J26">
-        <v>0.2311332237605974</v>
+        <v>0.2306691736631237</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N26">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O26">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P26">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q26">
-        <v>129.8820209697631</v>
+        <v>40.78057213251734</v>
       </c>
       <c r="R26">
-        <v>1168.938188727868</v>
+        <v>367.025149192656</v>
       </c>
       <c r="S26">
-        <v>0.08868259678053961</v>
+        <v>0.03006026328297762</v>
       </c>
       <c r="T26">
-        <v>0.1159702510287101</v>
+        <v>0.03764786976798242</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.1841186666666667</v>
+        <v>0.1594536666666667</v>
       </c>
       <c r="H27">
-        <v>0.5523560000000001</v>
+        <v>0.478361</v>
       </c>
       <c r="I27">
-        <v>0.06846841955568714</v>
+        <v>0.1012397483487676</v>
       </c>
       <c r="J27">
-        <v>0.08608452228479417</v>
+        <v>0.1253221400500019</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>25.635466</v>
+        <v>18.709915</v>
       </c>
       <c r="N27">
-        <v>51.270932</v>
+        <v>37.41983</v>
       </c>
       <c r="O27">
-        <v>0.04706933886585728</v>
+        <v>0.02172174612348608</v>
       </c>
       <c r="P27">
-        <v>0.03263775397871465</v>
+        <v>0.0146512391195149</v>
       </c>
       <c r="Q27">
-        <v>4.719967819298668</v>
+        <v>2.983364549771667</v>
       </c>
       <c r="R27">
-        <v>28.319806915792</v>
+        <v>17.90018729863</v>
       </c>
       <c r="S27">
-        <v>0.003222763241676327</v>
+        <v>0.002199104111237549</v>
       </c>
       <c r="T27">
-        <v>0.002809605459706291</v>
+        <v>0.001836124640841914</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.1841186666666667</v>
+        <v>0.1594536666666667</v>
       </c>
       <c r="H28">
-        <v>0.5523560000000001</v>
+        <v>0.478361</v>
       </c>
       <c r="I28">
-        <v>0.06846841955568714</v>
+        <v>0.1012397483487676</v>
       </c>
       <c r="J28">
-        <v>0.08608452228479417</v>
+        <v>0.1253221400500019</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>195.156291</v>
+        <v>206.0009306666667</v>
       </c>
       <c r="N28">
-        <v>585.468873</v>
+        <v>618.002792</v>
       </c>
       <c r="O28">
-        <v>0.3583269207153423</v>
+        <v>0.23916195862692</v>
       </c>
       <c r="P28">
-        <v>0.3726943960989305</v>
+        <v>0.2419708128583115</v>
       </c>
       <c r="Q28">
-        <v>35.93191609053201</v>
+        <v>32.84760373154577</v>
       </c>
       <c r="R28">
-        <v>323.3872448147881</v>
+        <v>295.628433583912</v>
       </c>
       <c r="S28">
-        <v>0.0245340779456355</v>
+        <v>0.02421269650598775</v>
       </c>
       <c r="T28">
-        <v>0.03208321904639629</v>
+        <v>0.03032430009704212</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.1841186666666667</v>
+        <v>0.1594536666666667</v>
       </c>
       <c r="H29">
-        <v>0.5523560000000001</v>
+        <v>0.478361</v>
       </c>
       <c r="I29">
-        <v>0.06846841955568714</v>
+        <v>0.1012397483487676</v>
       </c>
       <c r="J29">
-        <v>0.08608452228479417</v>
+        <v>0.1253221400500019</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>37.351686</v>
+        <v>11.2861685</v>
       </c>
       <c r="N29">
-        <v>74.703372</v>
+        <v>22.572337</v>
       </c>
       <c r="O29">
-        <v>0.06858151771241831</v>
+        <v>0.01310296101633201</v>
       </c>
       <c r="P29">
-        <v>0.04755424139191385</v>
+        <v>0.008837899767937843</v>
       </c>
       <c r="Q29">
-        <v>6.877142624072</v>
+        <v>1.799620949942833</v>
       </c>
       <c r="R29">
-        <v>41.26285574443201</v>
+        <v>10.797725699657</v>
       </c>
       <c r="S29">
-        <v>0.004695668128499646</v>
+        <v>0.001326540475917165</v>
       </c>
       <c r="T29">
-        <v>0.00409368415283869</v>
+        <v>0.001107584512465386</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.1841186666666667</v>
+        <v>0.1594536666666667</v>
       </c>
       <c r="H30">
-        <v>0.5523560000000001</v>
+        <v>0.478361</v>
       </c>
       <c r="I30">
-        <v>0.06846841955568714</v>
+        <v>0.1012397483487676</v>
       </c>
       <c r="J30">
-        <v>0.08608452228479417</v>
+        <v>0.1253221400500019</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.75594133333333</v>
+        <v>486.398356</v>
       </c>
       <c r="N30">
-        <v>71.26782399999999</v>
+        <v>1459.195068</v>
       </c>
       <c r="O30">
-        <v>0.04361833924517276</v>
+        <v>0.5646963978143673</v>
       </c>
       <c r="P30">
-        <v>0.04536726007458446</v>
+        <v>0.5713285138731203</v>
       </c>
       <c r="Q30">
-        <v>4.373912243704888</v>
+        <v>77.55800132483866</v>
       </c>
       <c r="R30">
-        <v>39.365210193344</v>
+        <v>698.022011923548</v>
       </c>
       <c r="S30">
-        <v>0.002986478751760782</v>
+        <v>0.05716972120818212</v>
       </c>
       <c r="T30">
-        <v>0.003905418910890619</v>
+        <v>0.07160011203016667</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.1841186666666667</v>
+        <v>0.1594536666666667</v>
       </c>
       <c r="H31">
-        <v>0.5523560000000001</v>
+        <v>0.478361</v>
       </c>
       <c r="I31">
-        <v>0.06846841955568714</v>
+        <v>0.1012397483487676</v>
       </c>
       <c r="J31">
-        <v>0.08608452228479417</v>
+        <v>0.1253221400500019</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>262.7325696666667</v>
+        <v>138.9495186666667</v>
       </c>
       <c r="N31">
-        <v>788.197709</v>
+        <v>416.848556</v>
       </c>
       <c r="O31">
-        <v>0.4824038834612092</v>
+        <v>0.1613169364188946</v>
       </c>
       <c r="P31">
-        <v>0.5017463484558564</v>
+        <v>0.1632115343811155</v>
       </c>
       <c r="Q31">
-        <v>48.37397041693378</v>
+        <v>22.15601023296844</v>
       </c>
       <c r="R31">
-        <v>435.3657337524041</v>
+        <v>199.404092096716</v>
       </c>
       <c r="S31">
-        <v>0.03302943148811487</v>
+        <v>0.01633168604744304</v>
       </c>
       <c r="T31">
-        <v>0.04319259471496227</v>
+        <v>0.02045401876948586</v>
       </c>
     </row>
   </sheetData>
